--- a/Project/mnist/results/MNIST_data_5.xlsx
+++ b/Project/mnist/results/MNIST_data_5.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="MNIST_data_5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -537,11 +537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1948955616"/>
-        <c:axId val="-1949992304"/>
+        <c:axId val="-2107420304"/>
+        <c:axId val="-2107426688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1948955616"/>
+        <c:axId val="-2107420304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,12 +654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1949992304"/>
+        <c:crossAx val="-2107426688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1949992304"/>
+        <c:axId val="-2107426688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1948955616"/>
+        <c:crossAx val="-2107420304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1812,7 +1812,7 @@
         <v>67.188999999999993</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="G5:I5" si="3">AVERAGE(D32:D41)</f>
+        <f t="shared" ref="H5:I5" si="3">AVERAGE(D32:D41)</f>
         <v>0.71876246929168652</v>
       </c>
       <c r="I5">
@@ -1845,7 +1845,7 @@
         <v>79.22699999999999</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="G6:I6" si="4">AVERAGE(D42:D51)</f>
+        <f t="shared" ref="H6:I6" si="4">AVERAGE(D42:D51)</f>
         <v>9.9537145853042315</v>
       </c>
       <c r="I6">
@@ -1878,7 +1878,7 @@
         <v>81.652999999999992</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="G7:I7" si="5">AVERAGE(D52:D61)</f>
+        <f t="shared" ref="H7:I7" si="5">AVERAGE(D52:D61)</f>
         <v>21.681658101081801</v>
       </c>
       <c r="I7">
@@ -1911,7 +1911,7 @@
         <v>83.038000000000011</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="G8:I8" si="6">AVERAGE(D62:D71)</f>
+        <f t="shared" ref="H8:I8" si="6">AVERAGE(D62:D71)</f>
         <v>33.507571220397899</v>
       </c>
       <c r="I8">
@@ -1944,7 +1944,7 @@
         <v>84.042999999999992</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="G9:I9" si="7">AVERAGE(D72:D81)</f>
+        <f t="shared" ref="H9:I9" si="7">AVERAGE(D72:D81)</f>
         <v>46.38768601417538</v>
       </c>
       <c r="I9">
@@ -1977,7 +1977,7 @@
         <v>84.530999999999992</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="G10:I10" si="8">AVERAGE(D82:D91)</f>
+        <f t="shared" ref="H10:I10" si="8">AVERAGE(D82:D91)</f>
         <v>59.130084514617849</v>
       </c>
       <c r="I10">
@@ -2010,7 +2010,7 @@
         <v>84.988</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="G11:I11" si="9">AVERAGE(D92:D101)</f>
+        <f t="shared" ref="H11:I11" si="9">AVERAGE(D92:D101)</f>
         <v>72.543228673934919</v>
       </c>
       <c r="I11">
